--- a/Learning_Codes/out.xlsx
+++ b/Learning_Codes/out.xlsx
@@ -379,44 +379,44 @@
     </row>
     <row r="2" spans="3:6">
       <c r="C2">
-        <v>117.9108467166507</v>
+        <v>214.8372658112414</v>
       </c>
       <c r="D2">
-        <v>144.1713593588373</v>
+        <v>249.8848328480542</v>
       </c>
       <c r="E2">
-        <v>149.8126238526814</v>
+        <v>294.3066003337336</v>
       </c>
       <c r="F2">
-        <v>0.115204136323907</v>
+        <v>0.1155505207897444</v>
       </c>
     </row>
     <row r="3" spans="3:6">
       <c r="C3">
-        <v>0.05955093295252249</v>
+        <v>0.1085036772130108</v>
       </c>
       <c r="D3">
-        <v>0.07385827349633689</v>
+        <v>0.1280147619051888</v>
       </c>
       <c r="E3">
-        <v>0.04371538810085979</v>
+        <v>0.08587878833439054</v>
       </c>
       <c r="F3">
-        <v>0.115204136323907</v>
+        <v>0.1155505207897444</v>
       </c>
     </row>
     <row r="4" spans="3:6">
       <c r="C4">
-        <v>0.9630226750244204</v>
+        <v>0.8807174665913134</v>
       </c>
       <c r="D4">
-        <v>0.9535429785012866</v>
+        <v>0.8557260287049364</v>
       </c>
       <c r="E4">
-        <v>0.8959176861088917</v>
+        <v>0.9526723613637526</v>
       </c>
       <c r="F4">
-        <v>0.9401505605635672</v>
+        <v>0.902241974108538</v>
       </c>
     </row>
   </sheetData>

--- a/Learning_Codes/out.xlsx
+++ b/Learning_Codes/out.xlsx
@@ -379,44 +379,44 @@
     </row>
     <row r="2" spans="3:6">
       <c r="C2">
-        <v>214.8372658112414</v>
+        <v>555.5617691202374</v>
       </c>
       <c r="D2">
-        <v>249.8848328480542</v>
+        <v>523.4939962203008</v>
       </c>
       <c r="E2">
-        <v>294.3066003337336</v>
+        <v>957.1535799068319</v>
       </c>
       <c r="F2">
-        <v>0.1155505207897444</v>
+        <v>0.07670530371619023</v>
       </c>
     </row>
     <row r="3" spans="3:6">
       <c r="C3">
-        <v>0.1085036772130108</v>
+        <v>0.280586771984365</v>
       </c>
       <c r="D3">
-        <v>0.1280147619051888</v>
+        <v>0.2681833786755539</v>
       </c>
       <c r="E3">
-        <v>0.08587878833439054</v>
+        <v>0.2792978220036598</v>
       </c>
       <c r="F3">
-        <v>0.1155505207897444</v>
+        <v>0.07670530581137579</v>
       </c>
     </row>
     <row r="4" spans="3:6">
       <c r="C4">
-        <v>0.8807174665913134</v>
+        <v>0.2023317128087725</v>
       </c>
       <c r="D4">
-        <v>0.8557260287049364</v>
+        <v>0.366813515775066</v>
       </c>
       <c r="E4">
-        <v>0.9526723613637526</v>
+        <v>0.4994146692613917</v>
       </c>
       <c r="F4">
-        <v>0.902241974108538</v>
+        <v>0.9569216166656223</v>
       </c>
     </row>
   </sheetData>

--- a/Learning_Codes/out.xlsx
+++ b/Learning_Codes/out.xlsx
@@ -379,44 +379,44 @@
     </row>
     <row r="2" spans="3:6">
       <c r="C2">
-        <v>555.5617691202374</v>
+        <v>502.0447034891405</v>
       </c>
       <c r="D2">
-        <v>523.4939962203008</v>
+        <v>504.8371895585076</v>
       </c>
       <c r="E2">
-        <v>957.1535799068319</v>
+        <v>593.3569379628483</v>
       </c>
       <c r="F2">
-        <v>0.07670530371619023</v>
+        <v>0.09253319251809124</v>
       </c>
     </row>
     <row r="3" spans="3:6">
       <c r="C3">
-        <v>0.280586771984365</v>
+        <v>0.2535579346322672</v>
       </c>
       <c r="D3">
-        <v>0.2681833786755539</v>
+        <v>0.2586255834756338</v>
       </c>
       <c r="E3">
-        <v>0.2792978220036598</v>
+        <v>0.1731418015576305</v>
       </c>
       <c r="F3">
-        <v>0.07670530581137579</v>
+        <v>0.09253319704396477</v>
       </c>
     </row>
     <row r="4" spans="3:6">
       <c r="C4">
-        <v>0.2023317128087725</v>
+        <v>0.3486080290328782</v>
       </c>
       <c r="D4">
-        <v>0.366813515775066</v>
+        <v>0.4111415572155905</v>
       </c>
       <c r="E4">
-        <v>0.4994146692613917</v>
+        <v>0.8076257620779391</v>
       </c>
       <c r="F4">
-        <v>0.9569216166656223</v>
+        <v>0.9373092159963808</v>
       </c>
     </row>
   </sheetData>

--- a/Learning_Codes/out.xlsx
+++ b/Learning_Codes/out.xlsx
@@ -379,44 +379,44 @@
     </row>
     <row r="2" spans="3:6">
       <c r="C2">
-        <v>502.0447034891405</v>
+        <v>270.6645398210031</v>
       </c>
       <c r="D2">
-        <v>504.8371895585076</v>
+        <v>236.831882939031</v>
       </c>
       <c r="E2">
-        <v>593.3569379628483</v>
+        <v>205.4171390950181</v>
       </c>
       <c r="F2">
-        <v>0.09253319251809124</v>
+        <v>0.09594861984630196</v>
       </c>
     </row>
     <row r="3" spans="3:6">
       <c r="C3">
-        <v>0.2535579346322672</v>
+        <v>0.1366992664078184</v>
       </c>
       <c r="D3">
-        <v>0.2586255834756338</v>
+        <v>0.1213278046681731</v>
       </c>
       <c r="E3">
-        <v>0.1731418015576305</v>
+        <v>0.0599408060785242</v>
       </c>
       <c r="F3">
-        <v>0.09253319704396477</v>
+        <v>0.09594861968737552</v>
       </c>
     </row>
     <row r="4" spans="3:6">
       <c r="C4">
-        <v>0.3486080290328782</v>
+        <v>0.8106696029737543</v>
       </c>
       <c r="D4">
-        <v>0.4111415572155905</v>
+        <v>0.8704049059502534</v>
       </c>
       <c r="E4">
-        <v>0.8076257620779391</v>
+        <v>0.9769437742637013</v>
       </c>
       <c r="F4">
-        <v>0.9373092159963808</v>
+        <v>0.9325959374453983</v>
       </c>
     </row>
   </sheetData>

--- a/Learning_Codes/out.xlsx
+++ b/Learning_Codes/out.xlsx
@@ -379,44 +379,44 @@
     </row>
     <row r="2" spans="3:6">
       <c r="C2">
-        <v>270.6645398210031</v>
+        <v>206.7583397624426</v>
       </c>
       <c r="D2">
-        <v>236.831882939031</v>
+        <v>282.3994035559546</v>
       </c>
       <c r="E2">
-        <v>205.4171390950181</v>
+        <v>330.0893498203726</v>
       </c>
       <c r="F2">
-        <v>0.09594861984630196</v>
+        <v>0.0748201265387255</v>
       </c>
     </row>
     <row r="3" spans="3:6">
       <c r="C3">
-        <v>0.1366992664078184</v>
+        <v>0.1044234111866395</v>
       </c>
       <c r="D3">
-        <v>0.1213278046681731</v>
+        <v>0.1446718228252814</v>
       </c>
       <c r="E3">
-        <v>0.0599408060785242</v>
+        <v>0.09632021127417482</v>
       </c>
       <c r="F3">
-        <v>0.09594861968737552</v>
+        <v>0.07482012435058537</v>
       </c>
     </row>
     <row r="4" spans="3:6">
       <c r="C4">
-        <v>0.8106696029737543</v>
+        <v>0.8895199927216501</v>
       </c>
       <c r="D4">
-        <v>0.8704049059502534</v>
+        <v>0.8157380021281248</v>
       </c>
       <c r="E4">
-        <v>0.9769437742637013</v>
+        <v>0.9404642420136086</v>
       </c>
       <c r="F4">
-        <v>0.9325959374453983</v>
+        <v>0.9590130609909293</v>
       </c>
     </row>
   </sheetData>

--- a/Learning_Codes/out.xlsx
+++ b/Learning_Codes/out.xlsx
@@ -379,44 +379,44 @@
     </row>
     <row r="2" spans="3:6">
       <c r="C2">
-        <v>206.7583397624426</v>
+        <v>235.8856835684062</v>
       </c>
       <c r="D2">
-        <v>282.3994035559546</v>
+        <v>252.8242062411566</v>
       </c>
       <c r="E2">
-        <v>330.0893498203726</v>
+        <v>124.2836315363305</v>
       </c>
       <c r="F2">
-        <v>0.0748201265387255</v>
+        <v>0.07806429480804625</v>
       </c>
     </row>
     <row r="3" spans="3:6">
       <c r="C3">
-        <v>0.1044234111866395</v>
+        <v>0.11913419143316</v>
       </c>
       <c r="D3">
-        <v>0.1446718228252814</v>
+        <v>0.1295205851813219</v>
       </c>
       <c r="E3">
-        <v>0.09632021127417482</v>
+        <v>0.03626601533122956</v>
       </c>
       <c r="F3">
-        <v>0.07482012435058537</v>
+        <v>0.0780642929249208</v>
       </c>
     </row>
     <row r="4" spans="3:6">
       <c r="C4">
-        <v>0.8895199927216501</v>
+        <v>0.8561993700559517</v>
       </c>
       <c r="D4">
-        <v>0.8157380021281248</v>
+        <v>0.852311890835485</v>
       </c>
       <c r="E4">
-        <v>0.9404642420136086</v>
+        <v>0.9915599944489871</v>
       </c>
       <c r="F4">
-        <v>0.9590130609909293</v>
+        <v>0.9553816515792136</v>
       </c>
     </row>
   </sheetData>
